--- a/For_30.xlsx
+++ b/For_30.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research Extra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C593924F-6FC6-4C5A-AB04-11AC3DFC0D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8A962F-C23D-42E6-A6AF-885FBE0BE151}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2686,18 +2686,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2738,16 +2732,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2759,10 +2750,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3069,25 +3060,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" customWidth="1"/>
-    <col min="2" max="2" width="65.44140625" customWidth="1"/>
-    <col min="3" max="3" width="51" style="7" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
-    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.109375" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" customWidth="1"/>
     <col min="16" max="16" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="54.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.33203125" customWidth="1"/>
+    <col min="18" max="18" width="17.77734375" customWidth="1"/>
     <col min="19" max="19" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3098,55 +3089,55 @@
       <c r="B1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>875</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="4"/>
+      <c r="S1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -3155,7 +3146,7 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3197,7 @@
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3259,7 +3250,7 @@
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>878</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3313,7 +3304,7 @@
       <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
@@ -3363,7 +3354,7 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
@@ -3411,7 +3402,7 @@
       <c r="B7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3461,7 +3452,7 @@
       <c r="B8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2" t="s">
         <v>79</v>
       </c>
@@ -3511,7 +3502,7 @@
       <c r="B9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3565,7 +3556,7 @@
       <c r="B10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2" t="s">
         <v>101</v>
       </c>
@@ -3615,7 +3606,7 @@
       <c r="B11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2" t="s">
         <v>110</v>
       </c>
@@ -3667,7 +3658,7 @@
       <c r="B12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>121</v>
       </c>
@@ -3719,7 +3710,7 @@
       <c r="B13" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>130</v>
       </c>
@@ -3771,7 +3762,7 @@
       <c r="B14" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>139</v>
       </c>
@@ -3823,7 +3814,7 @@
       <c r="B15" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>148</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3879,7 +3870,7 @@
       <c r="B16" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="2" t="s">
         <v>162</v>
       </c>
@@ -3929,7 +3920,7 @@
       <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2" t="s">
         <v>172</v>
       </c>
@@ -3981,7 +3972,7 @@
       <c r="B18" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2" t="s">
         <v>183</v>
       </c>
@@ -4031,7 +4022,7 @@
       <c r="B19" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>192</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -4085,7 +4076,7 @@
       <c r="B20" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2" t="s">
         <v>203</v>
       </c>
@@ -4135,7 +4126,7 @@
       <c r="B21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2" t="s">
         <v>211</v>
       </c>
@@ -4187,7 +4178,7 @@
       <c r="B22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2" t="s">
         <v>220</v>
       </c>
@@ -4239,7 +4230,7 @@
       <c r="B23" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="2" t="s">
         <v>230</v>
       </c>
@@ -4289,7 +4280,7 @@
       <c r="B24" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2" t="s">
         <v>239</v>
       </c>
@@ -4339,7 +4330,7 @@
       <c r="B25" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2" t="s">
         <v>248</v>
       </c>
@@ -4391,7 +4382,7 @@
       <c r="B26" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>257</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -4443,7 +4434,7 @@
       <c r="B27" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2" t="s">
         <v>267</v>
       </c>
@@ -4495,7 +4486,7 @@
       <c r="B28" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -4549,7 +4540,7 @@
       <c r="B29" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2" t="s">
         <v>286</v>
       </c>
@@ -4599,7 +4590,7 @@
       <c r="B30" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2" t="s">
         <v>293</v>
       </c>
@@ -4651,7 +4642,7 @@
       <c r="B31" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="2" t="s">
         <v>303</v>
       </c>
@@ -4703,7 +4694,7 @@
       <c r="B32" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2" t="s">
         <v>312</v>
       </c>
@@ -4755,7 +4746,7 @@
       <c r="B33" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>322</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4807,7 +4798,7 @@
       <c r="B34" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2" t="s">
         <v>334</v>
       </c>
@@ -4859,7 +4850,7 @@
       <c r="B35" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>341</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -4913,7 +4904,7 @@
       <c r="B36" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>354</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -4967,7 +4958,7 @@
       <c r="B37" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2" t="s">
         <v>363</v>
       </c>
@@ -5019,7 +5010,7 @@
       <c r="B38" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>372</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -5071,7 +5062,7 @@
       <c r="B39" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2" t="s">
         <v>380</v>
       </c>
@@ -5123,7 +5114,7 @@
       <c r="B40" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>390</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -5175,7 +5166,7 @@
       <c r="B41" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
         <v>398</v>
       </c>
@@ -5225,7 +5216,7 @@
       <c r="B42" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="2" t="s">
         <v>405</v>
       </c>
@@ -5275,7 +5266,7 @@
       <c r="B43" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="2" t="s">
         <v>412</v>
       </c>
@@ -5327,7 +5318,7 @@
       <c r="B44" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="2" t="s">
         <v>421</v>
       </c>
@@ -5377,7 +5368,7 @@
       <c r="B45" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="2" t="s">
         <v>429</v>
       </c>
@@ -5429,7 +5420,7 @@
       <c r="B46" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="2" t="s">
         <v>439</v>
       </c>
@@ -5481,7 +5472,7 @@
       <c r="B47" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C47" s="6"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="2" t="s">
         <v>447</v>
       </c>
@@ -5533,7 +5524,7 @@
       <c r="B48" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C48" s="6"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="2" t="s">
         <v>456</v>
       </c>
@@ -5585,7 +5576,7 @@
       <c r="B49" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C49" s="6"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="2" t="s">
         <v>464</v>
       </c>
@@ -5635,7 +5626,7 @@
       <c r="B50" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="2" t="s">
         <v>473</v>
       </c>
@@ -5687,7 +5678,7 @@
       <c r="B51" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C51" s="6"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="2" t="s">
         <v>483</v>
       </c>
@@ -5739,7 +5730,7 @@
       <c r="B52" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C52" s="6"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="2" t="s">
         <v>492</v>
       </c>
@@ -5789,7 +5780,7 @@
       <c r="B53" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C53" s="6"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="2" t="s">
         <v>500</v>
       </c>
@@ -5839,7 +5830,7 @@
       <c r="B54" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>509</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -5893,7 +5884,7 @@
       <c r="B55" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>518</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -5945,7 +5936,7 @@
       <c r="B56" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>527</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -5999,7 +5990,7 @@
       <c r="B57" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C57" s="6"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="2" t="s">
         <v>538</v>
       </c>
@@ -6051,7 +6042,7 @@
       <c r="B58" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>546</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -6105,7 +6096,7 @@
       <c r="B59" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C59" s="6"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="2" t="s">
         <v>557</v>
       </c>
@@ -6155,7 +6146,7 @@
       <c r="B60" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>565</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -6207,7 +6198,7 @@
       <c r="B61" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C61" s="6"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="2" t="s">
         <v>575</v>
       </c>
@@ -6259,7 +6250,7 @@
       <c r="B62" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="2" t="s">
         <v>585</v>
       </c>
@@ -6309,7 +6300,7 @@
       <c r="B63" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="2" t="s">
         <v>593</v>
       </c>
@@ -6361,7 +6352,7 @@
       <c r="B64" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="2" t="s">
         <v>600</v>
       </c>
@@ -6413,7 +6404,7 @@
       <c r="B65" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="2" t="s">
         <v>608</v>
       </c>
@@ -6463,7 +6454,7 @@
       <c r="B66" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C66" s="6"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="2" t="s">
         <v>617</v>
       </c>
@@ -6513,7 +6504,7 @@
       <c r="B67" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>518</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -6565,7 +6556,7 @@
       <c r="B68" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>527</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -6619,7 +6610,7 @@
       <c r="B69" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C69" s="6"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="2" t="s">
         <v>538</v>
       </c>
@@ -6671,7 +6662,7 @@
       <c r="B70" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>546</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -6725,7 +6716,7 @@
       <c r="B71" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C71" s="6"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="2" t="s">
         <v>557</v>
       </c>
@@ -6775,7 +6766,7 @@
       <c r="B72" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>565</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -6827,7 +6818,7 @@
       <c r="B73" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C73" s="6"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="2" t="s">
         <v>575</v>
       </c>
@@ -6879,7 +6870,7 @@
       <c r="B74" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="C74" s="6"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="2" t="s">
         <v>585</v>
       </c>
@@ -6929,7 +6920,7 @@
       <c r="B75" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C75" s="6"/>
+      <c r="C75" s="5"/>
       <c r="D75" s="2" t="s">
         <v>593</v>
       </c>
@@ -6981,7 +6972,7 @@
       <c r="B76" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C76" s="6"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="2" t="s">
         <v>600</v>
       </c>
@@ -7033,7 +7024,7 @@
       <c r="B77" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="C77" s="6"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="2" t="s">
         <v>608</v>
       </c>
@@ -7083,7 +7074,7 @@
       <c r="B78" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C78" s="6"/>
+      <c r="C78" s="5"/>
       <c r="D78" s="2" t="s">
         <v>617</v>
       </c>
@@ -7133,7 +7124,7 @@
       <c r="B79" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>626</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -7187,7 +7178,7 @@
       <c r="B80" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="C80" s="6"/>
+      <c r="C80" s="5"/>
       <c r="D80" s="2" t="s">
         <v>637</v>
       </c>
@@ -7239,7 +7230,7 @@
       <c r="B81" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C81" s="6"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="2" t="s">
         <v>647</v>
       </c>
@@ -7289,7 +7280,7 @@
       <c r="B82" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="C82" s="6"/>
+      <c r="C82" s="5"/>
       <c r="D82" s="2" t="s">
         <v>655</v>
       </c>
@@ -7341,7 +7332,7 @@
       <c r="B83" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C83" s="6"/>
+      <c r="C83" s="5"/>
       <c r="D83" s="2" t="s">
         <v>664</v>
       </c>
@@ -7393,7 +7384,7 @@
       <c r="B84" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="C84" s="6"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="2" t="s">
         <v>672</v>
       </c>
@@ -7445,7 +7436,7 @@
       <c r="B85" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>681</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -7497,7 +7488,7 @@
       <c r="B86" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>690</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -7551,7 +7542,7 @@
       <c r="B87" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C87" s="6"/>
+      <c r="C87" s="5"/>
       <c r="D87" s="2" t="s">
         <v>700</v>
       </c>
@@ -7601,7 +7592,7 @@
       <c r="B88" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>709</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -7653,7 +7644,7 @@
       <c r="B89" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="C89" s="6"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="2" t="s">
         <v>717</v>
       </c>
@@ -7705,7 +7696,7 @@
       <c r="B90" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C90" s="6"/>
+      <c r="C90" s="5"/>
       <c r="D90" s="2" t="s">
         <v>725</v>
       </c>
@@ -7755,7 +7746,7 @@
       <c r="B91" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>732</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -7807,7 +7798,7 @@
       <c r="B92" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="C92" s="6"/>
+      <c r="C92" s="5"/>
       <c r="D92" s="2" t="s">
         <v>741</v>
       </c>
@@ -7857,7 +7848,7 @@
       <c r="B93" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C93" s="6"/>
+      <c r="C93" s="5"/>
       <c r="D93" s="2" t="s">
         <v>750</v>
       </c>
@@ -7907,7 +7898,7 @@
       <c r="B94" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C94" s="6"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="2" t="s">
         <v>759</v>
       </c>
@@ -7955,7 +7946,7 @@
       <c r="B95" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="C95" s="6"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="2" t="s">
         <v>768</v>
       </c>
@@ -8007,7 +7998,7 @@
       <c r="B96" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C96" s="6"/>
+      <c r="C96" s="5"/>
       <c r="D96" s="2" t="s">
         <v>777</v>
       </c>
@@ -8057,7 +8048,7 @@
       <c r="B97" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="C97" s="6"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="2" t="s">
         <v>785</v>
       </c>
@@ -8109,7 +8100,7 @@
       <c r="B98" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="C98" s="6"/>
+      <c r="C98" s="5"/>
       <c r="D98" s="2" t="s">
         <v>795</v>
       </c>
@@ -8161,7 +8152,7 @@
       <c r="B99" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>805</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -8213,7 +8204,7 @@
       <c r="B100" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="C100" s="6"/>
+      <c r="C100" s="5"/>
       <c r="D100" s="2" t="s">
         <v>814</v>
       </c>
@@ -8265,7 +8256,7 @@
       <c r="B101" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="C101" s="6"/>
+      <c r="C101" s="5"/>
       <c r="D101" s="2" t="s">
         <v>823</v>
       </c>
@@ -8315,7 +8306,7 @@
       <c r="B102" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C102" s="6"/>
+      <c r="C102" s="5"/>
       <c r="D102" s="2" t="s">
         <v>829</v>
       </c>
@@ -8365,7 +8356,7 @@
       <c r="B103" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C103" s="6"/>
+      <c r="C103" s="5"/>
       <c r="D103" s="2" t="s">
         <v>836</v>
       </c>
@@ -8415,7 +8406,7 @@
       <c r="B104" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>844</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -8469,7 +8460,7 @@
       <c r="B105" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>855</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -8523,7 +8514,7 @@
       <c r="B106" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="C106" s="6"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="2" t="s">
         <v>865</v>
       </c>
